--- a/CDCM/Summaries/CDCM stats table 1202.xlsx
+++ b/CDCM/Summaries/CDCM stats table 1202.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28580" windowHeight="16320" tabRatio="500"/>
@@ -72,12 +72,6 @@
     <t>Order</t>
   </si>
   <si>
-    <t>^(?:Small|LV).*(?:Non[- ]Domestic(?: [UT]|$)|HH Metered$)</t>
-  </si>
-  <si>
-    <t>^(?:Small|LV).*Non[- ]Domestic(?: [UT]|$)</t>
-  </si>
-  <si>
     <t>Peak hours</t>
   </si>
   <si>
@@ -226,6 +220,12 @@
   </si>
   <si>
     <t>1202. Consumption assumptions for illustrative customers</t>
+  </si>
+  <si>
+    <t>^(?:Small|LV).*Non[- ]Domestic(?: [UTN]|$)</t>
+  </si>
+  <si>
+    <t>^(?:Small|LV).*(?:Non[- ]Domestic(?: [UTN]|$)|HH Metered$)</t>
   </si>
 </sst>
 </file>
@@ -348,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -356,17 +356,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="493">
+  <cellStyleXfs count="499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -500,6 +491,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -899,13 +896,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -921,8 +911,15 @@
     <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="493">
+  <cellStyles count="499">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1169,6 +1166,9 @@
     <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1414,6 +1414,9 @@
     <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="132" builtinId="5"/>
   </cellStyles>
@@ -1744,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1754,14 +1757,14 @@
   <cols>
     <col min="1" max="1" width="23.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="53.1640625" style="4" customWidth="1"/>
     <col min="4" max="9" width="13.83203125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="14.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1798,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>7</v>
@@ -1812,21 +1815,21 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7">
         <v>110</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5">
         <f>D$37</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E4" s="5">
         <f>E$37</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6">
         <f>F$37*$I4</f>
@@ -1834,41 +1837,41 @@
       </c>
       <c r="G4" s="6">
         <f>G$37*$I4</f>
-        <v>0</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="H4" s="6">
         <f>H$37*$I4</f>
-        <v>4.7352941176470598</v>
-      </c>
-      <c r="I4" s="16">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="I4" s="14">
         <v>23</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <f>(D4*F4+E4*G4+(168-D4-E4)*H4)*365.25/7</f>
-        <v>80647.199999999997</v>
-      </c>
-      <c r="K4" s="17">
+        <v>80707.205357142841</v>
+      </c>
+      <c r="K4" s="15">
         <f>E4*G4*365.25/7</f>
-        <v>0</v>
+        <v>13231.18125</v>
       </c>
       <c r="L4" s="8">
         <f>J4/365.25/24/I4</f>
-        <v>0.39999999999999997</v>
+        <v>0.40029761904761896</v>
       </c>
       <c r="M4" s="9">
         <f>MAX(F4,H4)/J4*365.25*24</f>
-        <v>1.7499999999999998</v>
+        <v>1.7486988847583644</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7">
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D5" s="5">
         <f>D$39</f>
@@ -1876,30 +1879,30 @@
       </c>
       <c r="E5" s="5">
         <f>E$39</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F5" s="6">
         <f>F$39*$I5</f>
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="G5" s="6">
         <f>G$39*$I5</f>
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="H5" s="6">
         <f>H$39*$I5</f>
         <v>20.7</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <v>23</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <f t="shared" ref="J5:J30" si="0">(D5*F5+E5*G5+(168-D5-E5)*H5)*365.25/7</f>
         <v>181456.19999999998</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <f t="shared" ref="K5:K30" si="1">E5*G5*365.25/7</f>
-        <v>0</v>
+        <v>52924.724999999999</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" ref="L5:L31" si="2">J5/365.25/24/I5</f>
@@ -1912,21 +1915,21 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7">
         <v>130</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5">
         <f>D$38</f>
-        <v>0</v>
+        <v>93.4</v>
       </c>
       <c r="E6" s="5">
         <f>E$38</f>
-        <v>74.666666666666671</v>
+        <v>49</v>
       </c>
       <c r="F6" s="6">
         <f>F$38*$I6</f>
@@ -1938,37 +1941,37 @@
       </c>
       <c r="H6" s="6">
         <f>H$38*$I6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
+        <v>20.7</v>
+      </c>
+      <c r="I6" s="14">
         <v>23</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <f t="shared" si="0"/>
-        <v>80647.199999999997</v>
-      </c>
-      <c r="K6" s="17">
+        <v>80575.193571428565</v>
+      </c>
+      <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>80647.199999999997</v>
+        <v>52924.724999999999</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="2"/>
-        <v>0.39999999999999997</v>
+        <v>0.39964285714285708</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.25201072386059</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7">
         <v>145</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5">
         <f>D$40</f>
@@ -1976,58 +1979,58 @@
       </c>
       <c r="E7" s="5">
         <f>E$40</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F7" s="6">
         <f>F$40*$I7</f>
-        <v>0</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="G7" s="6">
         <f>G$40*$I7</f>
-        <v>0</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="H7" s="6">
         <f>H$40*$I7</f>
         <v>9.2000000000000011</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <v>23</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>80647.199999999997</v>
-      </c>
-      <c r="K7" s="17">
+        <v>80647.200000000026</v>
+      </c>
+      <c r="K7" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23522.100000000002</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="2"/>
-        <v>0.39999999999999997</v>
+        <v>0.40000000000000013</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7">
         <f>100+B4</f>
         <v>210</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5">
         <f>D$37</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" s="5">
         <f>E$37</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6">
         <f>F$37*$I8</f>
@@ -2035,42 +2038,42 @@
       </c>
       <c r="G8" s="6">
         <f>G$37*$I8</f>
-        <v>0</v>
+        <v>15.525</v>
       </c>
       <c r="H8" s="6">
         <f>H$37*$I8</f>
-        <v>14.205882352941179</v>
-      </c>
-      <c r="I8" s="16">
+        <v>15.525</v>
+      </c>
+      <c r="I8" s="14">
         <v>69</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <f t="shared" si="0"/>
-        <v>241941.6</v>
-      </c>
-      <c r="K8" s="17">
+        <v>242121.61607142858</v>
+      </c>
+      <c r="K8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39693.543750000004</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="2"/>
-        <v>0.39999999999999997</v>
+        <v>0.40029761904761901</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>1.7499999999999998</v>
+        <v>1.7486988847583642</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="7">
         <f>100+B5</f>
         <v>220</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5">
         <f>D$39</f>
@@ -2078,30 +2081,30 @@
       </c>
       <c r="E9" s="5">
         <f>E$39</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F9" s="6">
         <f>F$39*$I9</f>
-        <v>0</v>
+        <v>62.1</v>
       </c>
       <c r="G9" s="6">
         <f>G$39*$I9</f>
-        <v>0</v>
+        <v>62.1</v>
       </c>
       <c r="H9" s="6">
         <f>H$39*$I9</f>
         <v>62.1</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>69</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>544368.6</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>158774.17500000002</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="2"/>
@@ -2114,22 +2117,22 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="7">
         <f>100+B6</f>
         <v>230</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D10" s="5">
         <f>D$38</f>
-        <v>0</v>
+        <v>93.4</v>
       </c>
       <c r="E10" s="5">
         <f>E$38</f>
-        <v>74.666666666666671</v>
+        <v>49</v>
       </c>
       <c r="F10" s="6">
         <f>F$38*$I10</f>
@@ -2141,38 +2144,38 @@
       </c>
       <c r="H10" s="6">
         <f>H$38*$I10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
+        <v>62.1</v>
+      </c>
+      <c r="I10" s="14">
         <v>69</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="15">
         <f t="shared" si="0"/>
-        <v>241941.6</v>
-      </c>
-      <c r="K10" s="17">
+        <v>241725.58071428569</v>
+      </c>
+      <c r="K10" s="15">
         <f t="shared" si="1"/>
-        <v>241941.6</v>
+        <v>158774.17500000002</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="2"/>
-        <v>0.39999999999999997</v>
+        <v>0.39964285714285708</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.25201072386059</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="7">
         <f>100+B7</f>
         <v>245</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5">
         <f>D$40</f>
@@ -2180,30 +2183,30 @@
       </c>
       <c r="E11" s="5">
         <f>E$40</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F11" s="6">
         <f>F$40*$I11</f>
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="G11" s="6">
         <f>G$40*$I11</f>
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="H11" s="6">
         <f>H$40*$I11</f>
         <v>27.6</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <v>69</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="15">
         <f t="shared" si="0"/>
         <v>241941.6</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70566.3</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="2"/>
@@ -2216,13 +2219,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7">
         <v>255</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D12" s="5">
         <f>D$36</f>
@@ -2234,45 +2237,45 @@
       </c>
       <c r="F12" s="6">
         <f>10*F$36</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="6">
         <f>10*G$36</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H12" s="6">
         <f>10*H$36</f>
-        <v>4.3481735159817365</v>
-      </c>
-      <c r="I12" s="16">
+        <v>5</v>
+      </c>
+      <c r="I12" s="14">
         <v>69</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="15">
         <f t="shared" si="0"/>
-        <v>80054.794520547948</v>
-      </c>
-      <c r="K12" s="17">
+        <v>70858.5</v>
+      </c>
+      <c r="K12" s="15">
         <f t="shared" si="1"/>
-        <v>40908</v>
+        <v>30681</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="2"/>
-        <v>0.13235391436701741</v>
+        <v>0.11714975845410629</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="3"/>
-        <v>1.2044999999999999</v>
+        <v>1.2371134020618557</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="7">
         <v>265</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D13" s="5">
         <f>D$35</f>
@@ -2284,54 +2287,54 @@
       </c>
       <c r="F13" s="6">
         <f>25*F$35</f>
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="G13" s="6">
         <f>25*G$35</f>
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="H13" s="6">
         <f>25*H$35</f>
-        <v>9.7103310502283122</v>
-      </c>
-      <c r="I13" s="16">
+        <v>8.75</v>
+      </c>
+      <c r="I13" s="14">
         <v>69</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="15">
         <f t="shared" si="0"/>
-        <v>95065.068493150713</v>
-      </c>
-      <c r="K13" s="17">
+        <v>83094.375</v>
+      </c>
+      <c r="K13" s="15">
         <f t="shared" si="1"/>
-        <v>15979.6875</v>
+        <v>12783.75</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="2"/>
-        <v>0.15717027331083319</v>
+        <v>0.1373792270531401</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="3"/>
-        <v>1.8442105263157886</v>
+        <v>1.8461538461538463</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" ref="B14:B25" si="4">B8+100</f>
         <v>310</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5">
         <f>D$37</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5">
         <f>E$37</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6">
         <f>F$37*$I14</f>
@@ -2339,42 +2342,42 @@
       </c>
       <c r="G14" s="6">
         <f>G$37*$I14</f>
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="H14" s="6">
         <f>H$37*$I14</f>
-        <v>102.94117647058826</v>
-      </c>
-      <c r="I14" s="16">
+        <v>112.5</v>
+      </c>
+      <c r="I14" s="14">
         <v>500</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="15">
         <f t="shared" si="0"/>
-        <v>1753200</v>
-      </c>
-      <c r="K14" s="17">
+        <v>1754504.4642857143</v>
+      </c>
+      <c r="K14" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>287634.375</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.40029761904761901</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="3"/>
-        <v>1.75</v>
+        <v>1.7486988847583642</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7">
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5">
         <f>D$39</f>
@@ -2382,30 +2385,30 @@
       </c>
       <c r="E15" s="5">
         <f>E$39</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F15" s="6">
         <f>F$39*$I15</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G15" s="6">
         <f>G$39*$I15</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H15" s="6">
         <f>H$39*$I15</f>
         <v>450</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="14">
         <v>500</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <f t="shared" si="0"/>
         <v>3944700</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1150537.5</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="2"/>
@@ -2418,22 +2421,22 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="7">
         <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5">
         <f>D$38</f>
-        <v>0</v>
+        <v>93.4</v>
       </c>
       <c r="E16" s="5">
         <f>E$38</f>
-        <v>74.666666666666671</v>
+        <v>49</v>
       </c>
       <c r="F16" s="6">
         <f>F$38*$I16</f>
@@ -2445,38 +2448,38 @@
       </c>
       <c r="H16" s="6">
         <f>H$38*$I16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="16">
+        <v>450</v>
+      </c>
+      <c r="I16" s="14">
         <v>500</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <f t="shared" si="0"/>
-        <v>1753200</v>
-      </c>
-      <c r="K16" s="17">
+        <v>1751634.642857143</v>
+      </c>
+      <c r="K16" s="15">
         <f t="shared" si="1"/>
-        <v>1753200</v>
+        <v>1150537.5</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.39964285714285719</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.2520107238605895</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="7">
         <f t="shared" si="4"/>
         <v>345</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5">
         <f>D$40</f>
@@ -2484,30 +2487,30 @@
       </c>
       <c r="E17" s="5">
         <f>E$40</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F17" s="6">
         <f>F$40*$I17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G17" s="6">
         <f>G$40*$I17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H17" s="6">
         <f>H$40*$I17</f>
         <v>200</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="14">
         <v>500</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="15">
         <f t="shared" si="0"/>
         <v>1753200</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>511350</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="2"/>
@@ -2520,14 +2523,14 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7">
         <f t="shared" si="4"/>
         <v>355</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="5">
         <f>D$36</f>
@@ -2539,46 +2542,46 @@
       </c>
       <c r="F18" s="6">
         <f>100*F$36</f>
-        <v>110.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="G18" s="6">
         <f>100*G$36</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H18" s="6">
         <f>100*H$36</f>
-        <v>43.481735159817362</v>
-      </c>
-      <c r="I18" s="16">
+        <v>50</v>
+      </c>
+      <c r="I18" s="14">
         <v>500</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <f t="shared" si="0"/>
-        <v>800547.94520547951</v>
-      </c>
-      <c r="K18" s="17">
+        <v>708585</v>
+      </c>
+      <c r="K18" s="15">
         <f t="shared" si="1"/>
-        <v>409080</v>
+        <v>306810</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="2"/>
-        <v>0.18264840182648401</v>
+        <v>0.16166666666666665</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="3"/>
-        <v>1.2045000000000001</v>
+        <v>1.2371134020618557</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="7">
         <f t="shared" si="4"/>
         <v>365</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="5">
         <f>D$35</f>
@@ -2590,54 +2593,54 @@
       </c>
       <c r="F19" s="6">
         <f>250*F$35</f>
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G19" s="6">
         <f>250*G$35</f>
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="H19" s="6">
         <f>250*H$35</f>
-        <v>97.103310502283136</v>
-      </c>
-      <c r="I19" s="16">
+        <v>87.5</v>
+      </c>
+      <c r="I19" s="14">
         <v>500</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="15">
         <f t="shared" si="0"/>
-        <v>950650.6849315071</v>
-      </c>
-      <c r="K19" s="17">
+        <v>830943.75</v>
+      </c>
+      <c r="K19" s="15">
         <f t="shared" si="1"/>
-        <v>159796.875</v>
+        <v>127837.5</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="2"/>
-        <v>0.21689497716894982</v>
+        <v>0.18958333333333335</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="3"/>
-        <v>1.8442105263157891</v>
+        <v>1.8461538461538463</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="7">
         <f t="shared" si="4"/>
         <v>410</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="5">
         <f>D$37</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E20" s="5">
         <f>E$37</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F20" s="6">
         <f>F$37*$I20</f>
@@ -2645,42 +2648,42 @@
       </c>
       <c r="G20" s="6">
         <f>G$37*$I20</f>
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="H20" s="6">
         <f>H$37*$I20</f>
-        <v>1029.4117647058827</v>
-      </c>
-      <c r="I20" s="16">
+        <v>1125</v>
+      </c>
+      <c r="I20" s="14">
         <v>5000</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="15">
         <f t="shared" si="0"/>
-        <v>17532000</v>
-      </c>
-      <c r="K20" s="17">
+        <v>17545044.642857142</v>
+      </c>
+      <c r="K20" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2876343.75</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.40029761904761901</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="3"/>
-        <v>1.75</v>
+        <v>1.7486988847583644</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="5">
         <f>D$39</f>
@@ -2688,30 +2691,30 @@
       </c>
       <c r="E21" s="5">
         <f>E$39</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F21" s="6">
         <f>F$39*$I21</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G21" s="6">
         <f>G$39*$I21</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="H21" s="6">
         <f>H$39*$I21</f>
         <v>4500</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="14">
         <v>5000</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="15">
         <f t="shared" si="0"/>
         <v>39447000</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11505375</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" si="2"/>
@@ -2724,22 +2727,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="5">
         <f>D$38</f>
-        <v>0</v>
+        <v>93.4</v>
       </c>
       <c r="E22" s="5">
         <f>E$38</f>
-        <v>74.666666666666671</v>
+        <v>49</v>
       </c>
       <c r="F22" s="6">
         <f>F$38*$I22</f>
@@ -2751,38 +2754,38 @@
       </c>
       <c r="H22" s="6">
         <f>H$38*$I22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
+        <v>4500</v>
+      </c>
+      <c r="I22" s="14">
         <v>5000</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="15">
         <f t="shared" si="0"/>
-        <v>17532000</v>
-      </c>
-      <c r="K22" s="17">
+        <v>17516346.428571429</v>
+      </c>
+      <c r="K22" s="15">
         <f t="shared" si="1"/>
-        <v>17532000</v>
+        <v>11505375</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.39964285714285713</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.2520107238605895</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7">
         <f t="shared" si="4"/>
         <v>445</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="5">
         <f>D$40</f>
@@ -2790,30 +2793,30 @@
       </c>
       <c r="E23" s="5">
         <f>E$40</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F23" s="6">
         <f>F$40*$I23</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G23" s="6">
         <f>G$40*$I23</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H23" s="6">
         <f>H$40*$I23</f>
         <v>2000</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="14">
         <v>5000</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="15">
         <f t="shared" si="0"/>
         <v>17532000</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5113500</v>
       </c>
       <c r="L23" s="8">
         <f t="shared" si="2"/>
@@ -2826,14 +2829,14 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="7">
         <f t="shared" si="4"/>
         <v>455</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="5">
         <f>D$36</f>
@@ -2845,46 +2848,46 @@
       </c>
       <c r="F24" s="6">
         <f>1000*F$36</f>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="6">
         <f>1000*G$36</f>
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="H24" s="6">
         <f>1000*H$36</f>
-        <v>434.81735159817362</v>
-      </c>
-      <c r="I24" s="16">
+        <v>500</v>
+      </c>
+      <c r="I24" s="14">
         <v>5000</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="15">
         <f t="shared" si="0"/>
-        <v>8005479.4520547939</v>
-      </c>
-      <c r="K24" s="17">
+        <v>7085850</v>
+      </c>
+      <c r="K24" s="15">
         <f t="shared" si="1"/>
-        <v>4090800</v>
+        <v>3068100</v>
       </c>
       <c r="L24" s="8">
         <f t="shared" si="2"/>
-        <v>0.18264840182648401</v>
+        <v>0.16166666666666668</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="3"/>
-        <v>1.2045000000000001</v>
+        <v>1.2371134020618557</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="7">
         <f t="shared" si="4"/>
         <v>465</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" ref="D25:E27" si="5">D$35</f>
@@ -2896,45 +2899,45 @@
       </c>
       <c r="F25" s="6">
         <f>2500*F$35</f>
-        <v>2000</v>
+        <v>1750</v>
       </c>
       <c r="G25" s="6">
         <f>2500*G$35</f>
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="H25" s="6">
         <f>2500*H$35</f>
-        <v>971.03310502283125</v>
-      </c>
-      <c r="I25" s="16">
+        <v>875</v>
+      </c>
+      <c r="I25" s="14">
         <v>5000</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="15">
         <f t="shared" si="0"/>
-        <v>9506506.8493150678</v>
-      </c>
-      <c r="K25" s="17">
+        <v>8309437.5</v>
+      </c>
+      <c r="K25" s="15">
         <f t="shared" si="1"/>
-        <v>1597968.75</v>
+        <v>1278375</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" si="2"/>
-        <v>0.21689497716894976</v>
+        <v>0.18958333333333333</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="3"/>
-        <v>1.8442105263157895</v>
+        <v>1.8461538461538463</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="7">
         <v>700</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="5"/>
@@ -2946,45 +2949,45 @@
       </c>
       <c r="F26" s="6">
         <f>F$35/2</f>
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G26" s="6">
         <f>G$35/2</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="H26" s="6">
         <f>H$35/2</f>
-        <v>0.19420662100456626</v>
-      </c>
-      <c r="I26" s="16">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I26" s="14">
         <v>6</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="15">
         <f t="shared" si="0"/>
-        <v>1901.3013698630136</v>
-      </c>
-      <c r="K26" s="17">
+        <v>1661.8875</v>
+      </c>
+      <c r="K26" s="15">
         <f t="shared" si="1"/>
-        <v>319.59375</v>
+        <v>255.67500000000001</v>
       </c>
       <c r="L26" s="8">
         <f t="shared" si="2"/>
-        <v>3.6149162861491627E-2</v>
+        <v>3.1597222222222221E-2</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="3"/>
-        <v>1.8442105263157895</v>
+        <v>1.8461538461538458</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="7">
         <v>720</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="5"/>
@@ -2996,45 +2999,45 @@
       </c>
       <c r="F27" s="6">
         <f>F$35</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G27" s="6">
         <f>G$35</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H27" s="6">
         <f>H$35</f>
-        <v>0.38841324200913252</v>
-      </c>
-      <c r="I27" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="I27" s="14">
         <v>9</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="15">
         <f t="shared" si="0"/>
-        <v>3802.6027397260273</v>
-      </c>
-      <c r="K27" s="17">
+        <v>3323.7750000000001</v>
+      </c>
+      <c r="K27" s="15">
         <f t="shared" si="1"/>
-        <v>639.1875</v>
+        <v>511.35</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" si="2"/>
-        <v>4.8198883815322169E-2</v>
+        <v>4.2129629629629628E-2</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="3"/>
-        <v>1.8442105263157895</v>
+        <v>1.8461538461538458</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="7">
         <v>740</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="5">
         <f>D$36</f>
@@ -3046,45 +3049,45 @@
       </c>
       <c r="F28" s="6">
         <f>F$36</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G28" s="6">
         <f>G$36</f>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H28" s="6">
         <f>H$36</f>
-        <v>0.43481735159817364</v>
-      </c>
-      <c r="I28" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="14">
         <v>18</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="15">
         <f t="shared" si="0"/>
-        <v>8005.4794520547957</v>
-      </c>
-      <c r="K28" s="17">
+        <v>7085.85</v>
+      </c>
+      <c r="K28" s="15">
         <f t="shared" si="1"/>
-        <v>4090.8</v>
+        <v>3068.1</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" si="2"/>
-        <v>5.0735667174023343E-2</v>
+        <v>4.4907407407407417E-2</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="3"/>
-        <v>1.2044999999999999</v>
+        <v>1.2371134020618557</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="7">
         <v>815</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" ref="D29:E31" si="6">D$40</f>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" ref="F29:F31" si="7">F$40*$I29</f>
@@ -3104,14 +3107,14 @@
       <c r="H29" s="6">
         <v>0.5</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="14">
         <v>0</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="15">
         <f t="shared" ref="J29" si="8">(D29*F29+E29*G29+(168-D29-E29)*H29)*365.25/7</f>
-        <v>4383</v>
-      </c>
-      <c r="K29" s="17">
+        <v>3104.625</v>
+      </c>
+      <c r="K29" s="15">
         <f t="shared" ref="K29" si="9">E29*G29*365.25/7</f>
         <v>0</v>
       </c>
@@ -3121,18 +3124,18 @@
       </c>
       <c r="M29" s="9">
         <f t="shared" ref="M29" si="11">MAX(F29,H29)/J29*365.25*24</f>
-        <v>1</v>
+        <v>1.4117647058823528</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="7">
         <v>825</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" si="6"/>
@@ -3140,7 +3143,7 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="7"/>
@@ -3152,14 +3155,14 @@
       <c r="H30" s="6">
         <v>0.5</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="14">
         <v>0</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="15">
         <f t="shared" si="0"/>
-        <v>4383</v>
-      </c>
-      <c r="K30" s="17">
+        <v>3104.625</v>
+      </c>
+      <c r="K30" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3169,18 +3172,18 @@
       </c>
       <c r="M30" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.4117647058823528</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="7">
         <v>835</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="6"/>
@@ -3188,7 +3191,7 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="7"/>
@@ -3200,14 +3203,14 @@
       <c r="H31" s="6">
         <v>0.5</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="14">
         <v>0</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="15">
         <f t="shared" ref="J31" si="12">(D31*F31+E31*G31+(168-D31-E31)*H31)*365.25/7</f>
-        <v>4383</v>
-      </c>
-      <c r="K31" s="17">
+        <v>3104.625</v>
+      </c>
+      <c r="K31" s="15">
         <f t="shared" ref="K31" si="13">E31*G31*365.25/7</f>
         <v>0</v>
       </c>
@@ -3217,7 +3220,7 @@
       </c>
       <c r="M31" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.4117647058823528</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1"/>
@@ -3225,14 +3228,11 @@
       <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
-      <c r="C34" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>12</v>
@@ -3245,52 +3245,40 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="B35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>35</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <v>49</v>
       </c>
-      <c r="F35" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="G35" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0.38841324200913252</v>
+      <c r="F35" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0.35</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
-      <c r="B36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <v>35</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
         <v>49</v>
       </c>
-      <c r="F36" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G36" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="H36" s="15">
-        <v>0.43481735159817364</v>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0.5</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>8</v>
@@ -3298,26 +3286,20 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="14">
-        <v>66</v>
-      </c>
-      <c r="E37" s="14">
-        <v>0</v>
-      </c>
-      <c r="F37" s="15">
+      <c r="D37" s="12">
+        <v>62</v>
+      </c>
+      <c r="E37" s="12">
+        <v>49</v>
+      </c>
+      <c r="F37" s="13">
         <v>0.7</v>
       </c>
-      <c r="G37" s="15">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
-        <v>0.20588235294117652</v>
+      <c r="G37" s="13">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0.22500000000000001</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>11</v>
@@ -3325,84 +3307,65 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="14">
+      <c r="D38" s="12">
+        <v>93.4</v>
+      </c>
+      <c r="E38" s="12">
+        <v>49</v>
+      </c>
+      <c r="F38" s="13">
         <v>0</v>
       </c>
-      <c r="E38" s="14">
-        <f>168/0.9*0.4</f>
-        <v>74.666666666666671</v>
-      </c>
-      <c r="F38" s="15">
-        <v>0</v>
-      </c>
-      <c r="G38" s="15">
+      <c r="G38" s="13">
         <v>0.9</v>
       </c>
-      <c r="H38" s="15">
-        <v>0</v>
+      <c r="H38" s="13">
+        <v>0.9</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="14">
+      <c r="D39" s="12">
         <v>0</v>
       </c>
-      <c r="E39" s="14">
-        <v>0</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
+      <c r="E39" s="12">
+        <v>49</v>
+      </c>
+      <c r="F39" s="13">
         <v>0.9</v>
       </c>
+      <c r="G39" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0.9</v>
+      </c>
       <c r="I39" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="D40" s="12">
         <v>0</v>
       </c>
-      <c r="E40" s="14">
-        <v>0</v>
-      </c>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15">
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
+      <c r="E40" s="12">
+        <v>49</v>
+      </c>
+      <c r="F40" s="13">
         <v>0.4</v>
       </c>
+      <c r="G40" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0.4</v>
+      </c>
       <c r="I40" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
@@ -3416,12 +3379,59 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1"/>
-    <row r="43" spans="1:9" ht="15" customHeight="1"/>
-    <row r="44" spans="1:9" ht="15" customHeight="1"/>
-    <row r="45" spans="1:9" ht="15" customHeight="1"/>
-    <row r="46" spans="1:9" ht="15" customHeight="1"/>
-    <row r="47" spans="1:9" ht="15" customHeight="1"/>
+    <row r="42" spans="1:9" ht="15" customHeight="1">
+      <c r="C42" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1">
+      <c r="B43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1">
+      <c r="B44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1">
+      <c r="B45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1">
+      <c r="B46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1">
+      <c r="B47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:M30">
     <sortState ref="A4:M29">

--- a/CDCM/Summaries/CDCM stats table 1202.xlsx
+++ b/CDCM/Summaries/CDCM stats table 1202.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franck/Documents/Projects/power-models/CDCM/Summaries/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28580" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28580" windowHeight="16320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1202" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1202'!$A$3:$M$30</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Capacity (kVA)</t>
   </si>
@@ -226,6 +231,9 @@
   </si>
   <si>
     <t>^(?:Small|LV).*(?:Non[- ]Domestic(?: [UTN]|$)|HH Metered$)</t>
+  </si>
+  <si>
+    <t>^(?:LV|LV Sub|HV|HV Sub|LDNO .*:) HH Metered$</t>
   </si>
 </sst>
 </file>
@@ -1422,6 +1430,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1749,11 +1762,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
@@ -1762,7 +1775,7 @@
     <col min="10" max="16384" width="14.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19">
+    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1775,7 +1788,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="28">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1813,7 +1826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1863,7 +1876,7 @@
         <v>1.7486988847583644</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1913,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1963,7 +1976,7 @@
         <v>2.25201072386059</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2013,7 +2026,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2077,7 @@
         <v>1.7486988847583642</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -2115,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2166,7 +2179,7 @@
         <v>2.25201072386059</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -2217,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -2267,7 +2280,7 @@
         <v>1.2371134020618557</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
@@ -2317,7 +2330,7 @@
         <v>1.8461538461538463</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2368,7 +2381,7 @@
         <v>1.7486988847583642</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -2419,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
@@ -2470,7 +2483,7 @@
         <v>2.2520107238605895</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2521,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>51</v>
       </c>
@@ -2572,7 +2585,7 @@
         <v>1.2371134020618557</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -2623,7 +2636,7 @@
         <v>1.8461538461538463</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -2674,7 +2687,7 @@
         <v>1.7486988847583644</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2725,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -2776,7 +2789,7 @@
         <v>2.2520107238605895</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -2827,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -2878,7 +2891,7 @@
         <v>1.2371134020618557</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
@@ -2929,7 +2942,7 @@
         <v>1.8461538461538463</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
@@ -2979,7 +2992,7 @@
         <v>1.8461538461538458</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -3029,7 +3042,7 @@
         <v>1.8461538461538458</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>48</v>
       </c>
@@ -3079,7 +3092,7 @@
         <v>1.2371134020618557</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -3127,7 +3140,7 @@
         <v>1.4117647058823528</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -3175,7 +3188,7 @@
         <v>1.4117647058823528</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -3223,11 +3236,11 @@
         <v>1.4117647058823528</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1"/>
-    <row r="33" spans="1:9" ht="15" customHeight="1">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="2" t="s">
         <v>16</v>
       </c>
@@ -3244,7 +3257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="12">
         <v>35</v>
       </c>
@@ -3264,7 +3277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="12">
         <v>35</v>
       </c>
@@ -3284,7 +3297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="D37" s="12">
         <v>62</v>
@@ -3305,7 +3318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="D38" s="12">
         <v>93.4</v>
@@ -3326,7 +3339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="D39" s="12">
         <v>0</v>
@@ -3347,7 +3360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="D40" s="12">
         <v>0</v>
@@ -3368,7 +3381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3379,12 +3392,12 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>24</v>
       </c>
@@ -3392,15 +3405,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>26</v>
       </c>
@@ -3408,7 +3421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>27</v>
       </c>
@@ -3416,7 +3429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>22</v>
       </c>
@@ -3424,7 +3437,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>29</v>
       </c>
@@ -3443,10 +3456,5 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/CDCM/Summaries/CDCM stats table 1202.xlsx
+++ b/CDCM/Summaries/CDCM stats table 1202.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franck/Documents/Projects/power-models/CDCM/Summaries/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28580" windowHeight="16320" tabRatio="500"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="1202" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1202'!$A$3:$M$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1202'!$A$13:$M$40</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>Capacity (kVA)</t>
   </si>
@@ -170,9 +165,6 @@
     <t>Domestic low use</t>
   </si>
   <si>
-    <t>Domestic standard</t>
-  </si>
-  <si>
     <t>Domestic electric heat</t>
   </si>
   <si>
@@ -215,15 +207,6 @@
     <t>All-the-way demand</t>
   </si>
   <si>
-    <t>Other demand (1)</t>
-  </si>
-  <si>
-    <t>Other demand (2)</t>
-  </si>
-  <si>
-    <t>Other generation</t>
-  </si>
-  <si>
     <t>1202. Consumption assumptions for illustrative customers</t>
   </si>
   <si>
@@ -234,6 +217,18 @@
   </si>
   <si>
     <t>^(?:LV|LV Sub|HV|HV Sub|LDNO .*:) HH Metered$</t>
+  </si>
+  <si>
+    <t>Custom demand</t>
+  </si>
+  <si>
+    <t>Custom demand 2</t>
+  </si>
+  <si>
+    <t>Custom generation</t>
+  </si>
+  <si>
+    <t>(control tables)</t>
   </si>
 </sst>
 </file>
@@ -365,7 +360,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="499">
+  <cellStyleXfs count="507">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -499,6 +494,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -927,7 +930,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="499">
+  <cellStyles count="507">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1177,6 +1180,10 @@
     <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1425,6 +1432,10 @@
     <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="132" builtinId="5"/>
   </cellStyles>
@@ -1760,13 +1771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
@@ -1775,1678 +1786,1623 @@
     <col min="10" max="16384" width="14.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19">
       <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="C3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12">
+        <v>49</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="12">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12">
+        <v>49</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="12">
+        <v>62</v>
+      </c>
+      <c r="E6" s="12">
+        <v>49</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="12">
+        <v>93.4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>49</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>49</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="19">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="28">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B14" s="7">
         <v>110</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="5">
-        <f>D$37</f>
+      <c r="C14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="5">
-        <f>E$37</f>
+      <c r="D14" s="5">
+        <f>D$6</f>
+        <v>62</v>
+      </c>
+      <c r="E14" s="5">
+        <f>E$6</f>
         <v>49</v>
       </c>
-      <c r="F4" s="6">
-        <f>F$37*$I4</f>
-        <v>16.099999999999998</v>
-      </c>
-      <c r="G4" s="6">
-        <f>G$37*$I4</f>
-        <v>5.1749999999999998</v>
-      </c>
-      <c r="H4" s="6">
-        <f>H$37*$I4</f>
-        <v>5.1749999999999998</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:H14" si="0">F$6*$I14*0.3</f>
+        <v>4.8299999999999992</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5525</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5525</v>
+      </c>
+      <c r="I14" s="14">
         <v>23</v>
       </c>
-      <c r="J4" s="15">
-        <f>(D4*F4+E4*G4+(168-D4-E4)*H4)*365.25/7</f>
-        <v>80707.205357142841</v>
-      </c>
-      <c r="K4" s="15">
-        <f>E4*G4*365.25/7</f>
-        <v>13231.18125</v>
-      </c>
-      <c r="L4" s="8">
-        <f>J4/365.25/24/I4</f>
-        <v>0.40029761904761896</v>
-      </c>
-      <c r="M4" s="9">
-        <f>MAX(F4,H4)/J4*365.25*24</f>
-        <v>1.7486988847583644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="J14" s="15">
+        <f>(D14*F14+E14*G14+(168-D14-E14)*H14)*365.25/7</f>
+        <v>24212.161607142854</v>
+      </c>
+      <c r="K14" s="15">
+        <f>E14*G14*365.25/7</f>
+        <v>3969.3543749999999</v>
+      </c>
+      <c r="L14" s="8">
+        <f>J14/365.25/24/I14</f>
+        <v>0.12008928571428572</v>
+      </c>
+      <c r="M14" s="9">
+        <f>MAX(F14,H14)/J14*365.25*24</f>
+        <v>1.7486988847583642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="7">
-        <v>120</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="5">
-        <f>D$39</f>
+      <c r="B15" s="7">
+        <v>125</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="5">
+        <f>D$8</f>
         <v>0</v>
       </c>
-      <c r="E5" s="5">
-        <f>E$39</f>
+      <c r="E15" s="5">
+        <f>E$8</f>
         <v>49</v>
       </c>
-      <c r="F5" s="6">
-        <f>F$39*$I5</f>
+      <c r="F15" s="6">
+        <f>F$8*$I15</f>
         <v>20.7</v>
       </c>
-      <c r="G5" s="6">
-        <f>G$39*$I5</f>
+      <c r="G15" s="6">
+        <f>G$8*$I15</f>
         <v>20.7</v>
       </c>
-      <c r="H5" s="6">
-        <f>H$39*$I5</f>
+      <c r="H15" s="6">
+        <f>H$8*$I15</f>
         <v>20.7</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I15" s="14">
         <v>23</v>
       </c>
-      <c r="J5" s="15">
-        <f t="shared" ref="J5:J30" si="0">(D5*F5+E5*G5+(168-D5-E5)*H5)*365.25/7</f>
+      <c r="J15" s="15">
+        <f t="shared" ref="J15:J40" si="1">(D15*F15+E15*G15+(168-D15-E15)*H15)*365.25/7</f>
         <v>181456.19999999998</v>
       </c>
-      <c r="K5" s="15">
-        <f t="shared" ref="K5:K30" si="1">E5*G5*365.25/7</f>
+      <c r="K15" s="15">
+        <f t="shared" ref="K15:K40" si="2">E15*G15*365.25/7</f>
         <v>52924.724999999999</v>
       </c>
-      <c r="L5" s="8">
-        <f t="shared" ref="L5:L31" si="2">J5/365.25/24/I5</f>
+      <c r="L15" s="8">
+        <f t="shared" ref="L15:L41" si="3">J15/365.25/24/I15</f>
         <v>0.9</v>
       </c>
-      <c r="M5" s="9">
-        <f t="shared" ref="M5:M31" si="3">MAX(F5,H5)/J5*365.25*24</f>
+      <c r="M15" s="9">
+        <f t="shared" ref="M15:M41" si="4">MAX(F15,H15)/J15*365.25*24</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7">
-        <v>130</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="5">
-        <f>D$38</f>
+      <c r="B16" s="7">
+        <v>135</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5">
+        <f>D$7</f>
         <v>93.4</v>
       </c>
-      <c r="E6" s="5">
-        <f>E$38</f>
+      <c r="E16" s="5">
+        <f>E$7</f>
         <v>49</v>
       </c>
-      <c r="F6" s="6">
-        <f>F$38*$I6</f>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:H16" si="5">F$7*$I16*0.3</f>
         <v>0</v>
       </c>
-      <c r="G6" s="6">
-        <f>G$38*$I6</f>
-        <v>20.7</v>
-      </c>
-      <c r="H6" s="6">
-        <f>H$38*$I6</f>
-        <v>20.7</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="G16" s="6">
+        <f t="shared" si="5"/>
+        <v>6.21</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="5"/>
+        <v>6.21</v>
+      </c>
+      <c r="I16" s="14">
         <v>23</v>
       </c>
-      <c r="J6" s="15">
-        <f t="shared" si="0"/>
-        <v>80575.193571428565</v>
-      </c>
-      <c r="K6" s="15">
+      <c r="J16" s="15">
         <f t="shared" si="1"/>
-        <v>52924.724999999999</v>
-      </c>
-      <c r="L6" s="8">
+        <v>24172.558071428568</v>
+      </c>
+      <c r="K16" s="15">
         <f t="shared" si="2"/>
+        <v>15877.4175</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11989285714285713</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="4"/>
+        <v>2.25201072386059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7">
+        <v>145</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5">
+        <f>D$9</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <f>E$9</f>
+        <v>49</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17:H17" si="6">F$9*$I17*0.3</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="I17" s="14">
+        <v>23</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="1"/>
+        <v>24194.160000000003</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="2"/>
+        <v>7056.63</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
+        <f>100+B14</f>
+        <v>210</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5">
+        <f>D$6</f>
+        <v>62</v>
+      </c>
+      <c r="E18" s="5">
+        <f>E$6</f>
+        <v>49</v>
+      </c>
+      <c r="F18" s="6">
+        <f>F$6*$I18</f>
+        <v>48.3</v>
+      </c>
+      <c r="G18" s="6">
+        <f>G$6*$I18</f>
+        <v>15.525</v>
+      </c>
+      <c r="H18" s="6">
+        <f>H$6*$I18</f>
+        <v>15.525</v>
+      </c>
+      <c r="I18" s="14">
+        <v>69</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="1"/>
+        <v>242121.61607142858</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="2"/>
+        <v>39693.543750000004</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="3"/>
+        <v>0.40029761904761901</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="4"/>
+        <v>1.7486988847583642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7">
+        <f>100+B15</f>
+        <v>225</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5">
+        <f>D$8</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f>E$8</f>
+        <v>49</v>
+      </c>
+      <c r="F19" s="6">
+        <f>F$8*$I19</f>
+        <v>62.1</v>
+      </c>
+      <c r="G19" s="6">
+        <f>G$8*$I19</f>
+        <v>62.1</v>
+      </c>
+      <c r="H19" s="6">
+        <f>H$8*$I19</f>
+        <v>62.1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>69</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="1"/>
+        <v>544368.6</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="2"/>
+        <v>158774.17500000002</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7">
+        <f>100+B16</f>
+        <v>235</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5">
+        <f>D$7</f>
+        <v>93.4</v>
+      </c>
+      <c r="E20" s="5">
+        <f>E$7</f>
+        <v>49</v>
+      </c>
+      <c r="F20" s="6">
+        <f>F$7*$I20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <f>G$7*$I20</f>
+        <v>62.1</v>
+      </c>
+      <c r="H20" s="6">
+        <f>H$7*$I20</f>
+        <v>62.1</v>
+      </c>
+      <c r="I20" s="14">
+        <v>69</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="1"/>
+        <v>241725.58071428569</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="2"/>
+        <v>158774.17500000002</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="3"/>
         <v>0.39964285714285708</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M20" s="9">
+        <f t="shared" si="4"/>
+        <v>2.25201072386059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="7">
+        <f>100+B17</f>
+        <v>245</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5">
+        <f>D$9</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <f>E$9</f>
+        <v>49</v>
+      </c>
+      <c r="F21" s="6">
+        <f>F$9*$I21</f>
+        <v>27.6</v>
+      </c>
+      <c r="G21" s="6">
+        <f>G$9*$I21</f>
+        <v>27.6</v>
+      </c>
+      <c r="H21" s="6">
+        <f>H$9*$I21</f>
+        <v>27.6</v>
+      </c>
+      <c r="I21" s="14">
+        <v>69</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="1"/>
+        <v>241941.6</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="2"/>
+        <v>70566.3</v>
+      </c>
+      <c r="L21" s="8">
         <f t="shared" si="3"/>
-        <v>2.25201072386059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="7">
-        <v>145</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="5">
-        <f>D$40</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <f>E$40</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="7">
+        <v>255</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="5">
+        <f>D$5</f>
+        <v>35</v>
+      </c>
+      <c r="E22" s="5">
+        <f>E$5</f>
         <v>49</v>
       </c>
-      <c r="F7" s="6">
-        <f>F$40*$I7</f>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="G7" s="6">
-        <f>G$40*$I7</f>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="H7" s="6">
-        <f>H$40*$I7</f>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="I7" s="14">
-        <v>23</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="0"/>
-        <v>80647.200000000026</v>
-      </c>
-      <c r="K7" s="15">
+      <c r="F22" s="6">
+        <f>10*F$5</f>
+        <v>10</v>
+      </c>
+      <c r="G22" s="6">
+        <f>10*G$5</f>
+        <v>12</v>
+      </c>
+      <c r="H22" s="6">
+        <f>10*H$5</f>
+        <v>5</v>
+      </c>
+      <c r="I22" s="14">
+        <v>69</v>
+      </c>
+      <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>23522.100000000002</v>
-      </c>
-      <c r="L7" s="8">
+        <v>70858.5</v>
+      </c>
+      <c r="K22" s="15">
         <f t="shared" si="2"/>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="M7" s="9">
+        <v>30681</v>
+      </c>
+      <c r="L22" s="8">
         <f t="shared" si="3"/>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="7">
-        <f>100+B4</f>
-        <v>210</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="5">
-        <f>D$37</f>
-        <v>62</v>
-      </c>
-      <c r="E8" s="5">
-        <f>E$37</f>
+        <v>0.11714975845410629</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="4"/>
+        <v>1.2371134020618557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="6">
-        <f>F$37*$I8</f>
-        <v>48.3</v>
-      </c>
-      <c r="G8" s="6">
-        <f>G$37*$I8</f>
-        <v>15.525</v>
-      </c>
-      <c r="H8" s="6">
-        <f>H$37*$I8</f>
-        <v>15.525</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="B23" s="7">
+        <v>265</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="5">
+        <f>D$4</f>
+        <v>35</v>
+      </c>
+      <c r="E23" s="5">
+        <f>E$4</f>
+        <v>49</v>
+      </c>
+      <c r="F23" s="6">
+        <f>25*F$4</f>
+        <v>17.5</v>
+      </c>
+      <c r="G23" s="6">
+        <f>25*G$4</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="6">
+        <f>25*H$4</f>
+        <v>8.75</v>
+      </c>
+      <c r="I23" s="14">
         <v>69</v>
       </c>
-      <c r="J8" s="15">
-        <f t="shared" si="0"/>
-        <v>242121.61607142858</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="J23" s="15">
         <f t="shared" si="1"/>
-        <v>39693.543750000004</v>
-      </c>
-      <c r="L8" s="8">
+        <v>83094.375</v>
+      </c>
+      <c r="K23" s="15">
         <f t="shared" si="2"/>
-        <v>0.40029761904761901</v>
-      </c>
-      <c r="M8" s="9">
+        <v>12783.75</v>
+      </c>
+      <c r="L23" s="8">
         <f t="shared" si="3"/>
-        <v>1.7486988847583642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="7">
-        <f>100+B5</f>
-        <v>220</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="5">
-        <f>D$39</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <f>E$39</f>
-        <v>49</v>
-      </c>
-      <c r="F9" s="6">
-        <f>F$39*$I9</f>
-        <v>62.1</v>
-      </c>
-      <c r="G9" s="6">
-        <f>G$39*$I9</f>
-        <v>62.1</v>
-      </c>
-      <c r="H9" s="6">
-        <f>H$39*$I9</f>
-        <v>62.1</v>
-      </c>
-      <c r="I9" s="14">
-        <v>69</v>
-      </c>
-      <c r="J9" s="15">
-        <f t="shared" si="0"/>
-        <v>544368.6</v>
-      </c>
-      <c r="K9" s="15">
-        <f t="shared" si="1"/>
-        <v>158774.17500000002</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="7">
-        <f>100+B6</f>
-        <v>230</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="5">
-        <f>D$38</f>
-        <v>93.4</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E$38</f>
-        <v>49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>F$38*$I10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <f>G$38*$I10</f>
-        <v>62.1</v>
-      </c>
-      <c r="H10" s="6">
-        <f>H$38*$I10</f>
-        <v>62.1</v>
-      </c>
-      <c r="I10" s="14">
-        <v>69</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="0"/>
-        <v>241725.58071428569</v>
-      </c>
-      <c r="K10" s="15">
-        <f t="shared" si="1"/>
-        <v>158774.17500000002</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" si="2"/>
-        <v>0.39964285714285708</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="3"/>
-        <v>2.25201072386059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="7">
-        <f>100+B7</f>
-        <v>245</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="5">
-        <f>D$40</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <f>E$40</f>
-        <v>49</v>
-      </c>
-      <c r="F11" s="6">
-        <f>F$40*$I11</f>
-        <v>27.6</v>
-      </c>
-      <c r="G11" s="6">
-        <f>G$40*$I11</f>
-        <v>27.6</v>
-      </c>
-      <c r="H11" s="6">
-        <f>H$40*$I11</f>
-        <v>27.6</v>
-      </c>
-      <c r="I11" s="14">
-        <v>69</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="0"/>
-        <v>241941.6</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="1"/>
-        <v>70566.3</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="2"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="7">
-        <v>255</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="5">
-        <f>D$36</f>
-        <v>35</v>
-      </c>
-      <c r="E12" s="5">
-        <f>E$36</f>
-        <v>49</v>
-      </c>
-      <c r="F12" s="6">
-        <f>10*F$36</f>
-        <v>10</v>
-      </c>
-      <c r="G12" s="6">
-        <f>10*G$36</f>
-        <v>12</v>
-      </c>
-      <c r="H12" s="6">
-        <f>10*H$36</f>
-        <v>5</v>
-      </c>
-      <c r="I12" s="14">
-        <v>69</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="0"/>
-        <v>70858.5</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="1"/>
-        <v>30681</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" si="2"/>
-        <v>0.11714975845410629</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="3"/>
-        <v>1.2371134020618557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="7">
-        <v>265</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="5">
-        <f>D$35</f>
-        <v>35</v>
-      </c>
-      <c r="E13" s="5">
-        <f>E$35</f>
-        <v>49</v>
-      </c>
-      <c r="F13" s="6">
-        <f>25*F$35</f>
-        <v>17.5</v>
-      </c>
-      <c r="G13" s="6">
-        <f>25*G$35</f>
-        <v>5</v>
-      </c>
-      <c r="H13" s="6">
-        <f>25*H$35</f>
-        <v>8.75</v>
-      </c>
-      <c r="I13" s="14">
-        <v>69</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="0"/>
-        <v>83094.375</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="1"/>
-        <v>12783.75</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="2"/>
         <v>0.1373792270531401</v>
       </c>
-      <c r="M13" s="9">
-        <f t="shared" si="3"/>
+      <c r="M23" s="9">
+        <f t="shared" si="4"/>
         <v>1.8461538461538463</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="7">
-        <f t="shared" ref="B14:B25" si="4">B8+100</f>
+      <c r="B24" s="7">
+        <f t="shared" ref="B24:B35" si="7">B18+100</f>
         <v>310</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="5">
-        <f>D$37</f>
-        <v>62</v>
-      </c>
-      <c r="E14" s="5">
-        <f>E$37</f>
-        <v>49</v>
-      </c>
-      <c r="F14" s="6">
-        <f>F$37*$I14</f>
-        <v>350</v>
-      </c>
-      <c r="G14" s="6">
-        <f>G$37*$I14</f>
-        <v>112.5</v>
-      </c>
-      <c r="H14" s="6">
-        <f>H$37*$I14</f>
-        <v>112.5</v>
-      </c>
-      <c r="I14" s="14">
-        <v>500</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="0"/>
-        <v>1754504.4642857143</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="1"/>
-        <v>287634.375</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="2"/>
-        <v>0.40029761904761901</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="3"/>
-        <v>1.7486988847583642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="7">
-        <f t="shared" si="4"/>
-        <v>320</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="5">
-        <f>D$39</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <f>E$39</f>
-        <v>49</v>
-      </c>
-      <c r="F15" s="6">
-        <f>F$39*$I15</f>
-        <v>450</v>
-      </c>
-      <c r="G15" s="6">
-        <f>G$39*$I15</f>
-        <v>450</v>
-      </c>
-      <c r="H15" s="6">
-        <f>H$39*$I15</f>
-        <v>450</v>
-      </c>
-      <c r="I15" s="14">
-        <v>500</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="0"/>
-        <v>3944700</v>
-      </c>
-      <c r="K15" s="15">
-        <f t="shared" si="1"/>
-        <v>1150537.5</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="7">
-        <f t="shared" si="4"/>
-        <v>330</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="5">
-        <f>D$38</f>
-        <v>93.4</v>
-      </c>
-      <c r="E16" s="5">
-        <f>E$38</f>
-        <v>49</v>
-      </c>
-      <c r="F16" s="6">
-        <f>F$38*$I16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <f>G$38*$I16</f>
-        <v>450</v>
-      </c>
-      <c r="H16" s="6">
-        <f>H$38*$I16</f>
-        <v>450</v>
-      </c>
-      <c r="I16" s="14">
-        <v>500</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="0"/>
-        <v>1751634.642857143</v>
-      </c>
-      <c r="K16" s="15">
-        <f t="shared" si="1"/>
-        <v>1150537.5</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="2"/>
-        <v>0.39964285714285719</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" si="3"/>
-        <v>2.2520107238605895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="7">
-        <f t="shared" si="4"/>
-        <v>345</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5">
-        <f>D$40</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <f>E$40</f>
-        <v>49</v>
-      </c>
-      <c r="F17" s="6">
-        <f>F$40*$I17</f>
-        <v>200</v>
-      </c>
-      <c r="G17" s="6">
-        <f>G$40*$I17</f>
-        <v>200</v>
-      </c>
-      <c r="H17" s="6">
-        <f>H$40*$I17</f>
-        <v>200</v>
-      </c>
-      <c r="I17" s="14">
-        <v>500</v>
-      </c>
-      <c r="J17" s="15">
-        <f t="shared" si="0"/>
-        <v>1753200</v>
-      </c>
-      <c r="K17" s="15">
-        <f t="shared" si="1"/>
-        <v>511350</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="M17" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7">
-        <f t="shared" si="4"/>
-        <v>355</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="5">
-        <f>D$36</f>
-        <v>35</v>
-      </c>
-      <c r="E18" s="5">
-        <f>E$36</f>
-        <v>49</v>
-      </c>
-      <c r="F18" s="6">
-        <f>100*F$36</f>
-        <v>100</v>
-      </c>
-      <c r="G18" s="6">
-        <f>100*G$36</f>
-        <v>120</v>
-      </c>
-      <c r="H18" s="6">
-        <f>100*H$36</f>
-        <v>50</v>
-      </c>
-      <c r="I18" s="14">
-        <v>500</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="0"/>
-        <v>708585</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="1"/>
-        <v>306810</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="2"/>
-        <v>0.16166666666666665</v>
-      </c>
-      <c r="M18" s="9">
-        <f t="shared" si="3"/>
-        <v>1.2371134020618557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="7">
-        <f t="shared" si="4"/>
-        <v>365</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="5">
-        <f>D$35</f>
-        <v>35</v>
-      </c>
-      <c r="E19" s="5">
-        <f>E$35</f>
-        <v>49</v>
-      </c>
-      <c r="F19" s="6">
-        <f>250*F$35</f>
-        <v>175</v>
-      </c>
-      <c r="G19" s="6">
-        <f>250*G$35</f>
-        <v>50</v>
-      </c>
-      <c r="H19" s="6">
-        <f>250*H$35</f>
-        <v>87.5</v>
-      </c>
-      <c r="I19" s="14">
-        <v>500</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="0"/>
-        <v>830943.75</v>
-      </c>
-      <c r="K19" s="15">
-        <f t="shared" si="1"/>
-        <v>127837.5</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="2"/>
-        <v>0.18958333333333335</v>
-      </c>
-      <c r="M19" s="9">
-        <f t="shared" si="3"/>
-        <v>1.8461538461538463</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="7">
-        <f t="shared" si="4"/>
-        <v>410</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="5">
-        <f>D$37</f>
-        <v>62</v>
-      </c>
-      <c r="E20" s="5">
-        <f>E$37</f>
-        <v>49</v>
-      </c>
-      <c r="F20" s="6">
-        <f>F$37*$I20</f>
-        <v>3500</v>
-      </c>
-      <c r="G20" s="6">
-        <f>G$37*$I20</f>
-        <v>1125</v>
-      </c>
-      <c r="H20" s="6">
-        <f>H$37*$I20</f>
-        <v>1125</v>
-      </c>
-      <c r="I20" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="0"/>
-        <v>17545044.642857142</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="1"/>
-        <v>2876343.75</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="2"/>
-        <v>0.40029761904761901</v>
-      </c>
-      <c r="M20" s="9">
-        <f t="shared" si="3"/>
-        <v>1.7486988847583644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="7">
-        <f t="shared" si="4"/>
-        <v>420</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="5">
-        <f>D$39</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <f>E$39</f>
-        <v>49</v>
-      </c>
-      <c r="F21" s="6">
-        <f>F$39*$I21</f>
-        <v>4500</v>
-      </c>
-      <c r="G21" s="6">
-        <f>G$39*$I21</f>
-        <v>4500</v>
-      </c>
-      <c r="H21" s="6">
-        <f>H$39*$I21</f>
-        <v>4500</v>
-      </c>
-      <c r="I21" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="0"/>
-        <v>39447000</v>
-      </c>
-      <c r="K21" s="15">
-        <f t="shared" si="1"/>
-        <v>11505375</v>
-      </c>
-      <c r="L21" s="8">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="M21" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="7">
-        <f t="shared" si="4"/>
-        <v>430</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="5">
-        <f>D$38</f>
-        <v>93.4</v>
-      </c>
-      <c r="E22" s="5">
-        <f>E$38</f>
-        <v>49</v>
-      </c>
-      <c r="F22" s="6">
-        <f>F$38*$I22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <f>G$38*$I22</f>
-        <v>4500</v>
-      </c>
-      <c r="H22" s="6">
-        <f>H$38*$I22</f>
-        <v>4500</v>
-      </c>
-      <c r="I22" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="0"/>
-        <v>17516346.428571429</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="1"/>
-        <v>11505375</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="2"/>
-        <v>0.39964285714285713</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="3"/>
-        <v>2.2520107238605895</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="7">
-        <f t="shared" si="4"/>
-        <v>445</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="5">
-        <f>D$40</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <f>E$40</f>
-        <v>49</v>
-      </c>
-      <c r="F23" s="6">
-        <f>F$40*$I23</f>
-        <v>2000</v>
-      </c>
-      <c r="G23" s="6">
-        <f>G$40*$I23</f>
-        <v>2000</v>
-      </c>
-      <c r="H23" s="6">
-        <f>H$40*$I23</f>
-        <v>2000</v>
-      </c>
-      <c r="I23" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="0"/>
-        <v>17532000</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="1"/>
-        <v>5113500</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="M23" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="7">
-        <f t="shared" si="4"/>
-        <v>455</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="5">
-        <f>D$36</f>
-        <v>35</v>
+        <f>D$6</f>
+        <v>62</v>
       </c>
       <c r="E24" s="5">
-        <f>E$36</f>
+        <f>E$6</f>
         <v>49</v>
       </c>
       <c r="F24" s="6">
-        <f>1000*F$36</f>
-        <v>1000</v>
+        <f>F$6*$I24</f>
+        <v>482.99999999999994</v>
       </c>
       <c r="G24" s="6">
-        <f>1000*G$36</f>
-        <v>1200</v>
+        <f>G$6*$I24</f>
+        <v>155.25</v>
       </c>
       <c r="H24" s="6">
-        <f>1000*H$36</f>
-        <v>500</v>
+        <f>H$6*$I24</f>
+        <v>155.25</v>
       </c>
       <c r="I24" s="14">
-        <v>5000</v>
+        <v>690</v>
       </c>
       <c r="J24" s="15">
-        <f t="shared" si="0"/>
-        <v>7085850</v>
+        <f t="shared" si="1"/>
+        <v>2421216.1607142859</v>
       </c>
       <c r="K24" s="15">
-        <f t="shared" si="1"/>
-        <v>3068100</v>
+        <f t="shared" si="2"/>
+        <v>396935.4375</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="2"/>
-        <v>0.16166666666666668</v>
+        <f t="shared" si="3"/>
+        <v>0.40029761904761907</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="3"/>
-        <v>1.2371134020618557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>1.748698884758364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B25" s="7">
-        <f t="shared" si="4"/>
-        <v>465</v>
+        <f t="shared" si="7"/>
+        <v>325</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" ref="D25:E27" si="5">D$35</f>
+        <f>D$8</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <f>E$8</f>
+        <v>49</v>
+      </c>
+      <c r="F25" s="6">
+        <f>F$8*$I25</f>
+        <v>621</v>
+      </c>
+      <c r="G25" s="6">
+        <f>G$8*$I25</f>
+        <v>621</v>
+      </c>
+      <c r="H25" s="6">
+        <f>H$8*$I25</f>
+        <v>621</v>
+      </c>
+      <c r="I25" s="14">
+        <v>690</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="1"/>
+        <v>5443686</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="2"/>
+        <v>1587741.75</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="7">
+        <f t="shared" si="7"/>
+        <v>335</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="5">
+        <f>D$7</f>
+        <v>93.4</v>
+      </c>
+      <c r="E26" s="5">
+        <f>E$7</f>
+        <v>49</v>
+      </c>
+      <c r="F26" s="6">
+        <f>F$7*$I26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f>G$7*$I26</f>
+        <v>621</v>
+      </c>
+      <c r="H26" s="6">
+        <f>H$7*$I26</f>
+        <v>621</v>
+      </c>
+      <c r="I26" s="14">
+        <v>690</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="1"/>
+        <v>2417255.807142857</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="2"/>
+        <v>1587741.75</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="3"/>
+        <v>0.39964285714285713</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="4"/>
+        <v>2.25201072386059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="7">
+        <f t="shared" si="7"/>
+        <v>345</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="5">
+        <f>D$9</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f>E$9</f>
+        <v>49</v>
+      </c>
+      <c r="F27" s="6">
+        <f>F$9*$I27</f>
+        <v>276</v>
+      </c>
+      <c r="G27" s="6">
+        <f>G$9*$I27</f>
+        <v>276</v>
+      </c>
+      <c r="H27" s="6">
+        <f>H$9*$I27</f>
+        <v>276</v>
+      </c>
+      <c r="I27" s="14">
+        <v>690</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="1"/>
+        <v>2419416</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="2"/>
+        <v>705663</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="7">
+        <f t="shared" si="7"/>
+        <v>355</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="5">
+        <f>D$5</f>
         <v>35</v>
       </c>
-      <c r="E25" s="5">
-        <f t="shared" si="5"/>
+      <c r="E28" s="5">
+        <f>E$5</f>
         <v>49</v>
       </c>
-      <c r="F25" s="6">
-        <f>2500*F$35</f>
+      <c r="F28" s="6">
+        <f>100*F$5</f>
+        <v>100</v>
+      </c>
+      <c r="G28" s="6">
+        <f>100*G$5</f>
+        <v>120</v>
+      </c>
+      <c r="H28" s="6">
+        <f>100*H$5</f>
+        <v>50</v>
+      </c>
+      <c r="I28" s="14">
+        <v>690</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="1"/>
+        <v>708585</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="2"/>
+        <v>306810</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11714975845410627</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="4"/>
+        <v>1.2371134020618557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="7">
+        <f t="shared" si="7"/>
+        <v>365</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="5">
+        <f>D$4</f>
+        <v>35</v>
+      </c>
+      <c r="E29" s="5">
+        <f>E$4</f>
+        <v>49</v>
+      </c>
+      <c r="F29" s="6">
+        <f>250*F$4</f>
+        <v>175</v>
+      </c>
+      <c r="G29" s="6">
+        <f>250*G$4</f>
+        <v>50</v>
+      </c>
+      <c r="H29" s="6">
+        <f>250*H$4</f>
+        <v>87.5</v>
+      </c>
+      <c r="I29" s="14">
+        <v>690</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="1"/>
+        <v>830943.75</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="2"/>
+        <v>127837.5</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="3"/>
+        <v>0.1373792270531401</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="4"/>
+        <v>1.8461538461538463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="7">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="5">
+        <f>D$6</f>
+        <v>62</v>
+      </c>
+      <c r="E30" s="5">
+        <f>E$6</f>
+        <v>49</v>
+      </c>
+      <c r="F30" s="6">
+        <f>F$6*$I30</f>
+        <v>3500</v>
+      </c>
+      <c r="G30" s="6">
+        <f>G$6*$I30</f>
+        <v>1125</v>
+      </c>
+      <c r="H30" s="6">
+        <f>H$6*$I30</f>
+        <v>1125</v>
+      </c>
+      <c r="I30" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="1"/>
+        <v>17545044.642857142</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="2"/>
+        <v>2876343.75</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="3"/>
+        <v>0.40029761904761901</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="4"/>
+        <v>1.7486988847583644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="7">
+        <f t="shared" si="7"/>
+        <v>425</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="5">
+        <f>D$8</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <f>E$8</f>
+        <v>49</v>
+      </c>
+      <c r="F31" s="6">
+        <f>F$8*$I31</f>
+        <v>4500</v>
+      </c>
+      <c r="G31" s="6">
+        <f>G$8*$I31</f>
+        <v>4500</v>
+      </c>
+      <c r="H31" s="6">
+        <f>H$8*$I31</f>
+        <v>4500</v>
+      </c>
+      <c r="I31" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="1"/>
+        <v>39447000</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="2"/>
+        <v>11505375</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7">
+        <f t="shared" si="7"/>
+        <v>435</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="5">
+        <f>D$7</f>
+        <v>93.4</v>
+      </c>
+      <c r="E32" s="5">
+        <f>E$7</f>
+        <v>49</v>
+      </c>
+      <c r="F32" s="6">
+        <f>F$7*$I32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <f>G$7*$I32</f>
+        <v>4500</v>
+      </c>
+      <c r="H32" s="6">
+        <f>H$7*$I32</f>
+        <v>4500</v>
+      </c>
+      <c r="I32" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="1"/>
+        <v>17516346.428571429</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="2"/>
+        <v>11505375</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="3"/>
+        <v>0.39964285714285713</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="4"/>
+        <v>2.2520107238605895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="7">
+        <f t="shared" si="7"/>
+        <v>445</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="5">
+        <f>D$9</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <f>E$9</f>
+        <v>49</v>
+      </c>
+      <c r="F33" s="6">
+        <f>F$9*$I33</f>
+        <v>2000</v>
+      </c>
+      <c r="G33" s="6">
+        <f>G$9*$I33</f>
+        <v>2000</v>
+      </c>
+      <c r="H33" s="6">
+        <f>H$9*$I33</f>
+        <v>2000</v>
+      </c>
+      <c r="I33" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="1"/>
+        <v>17532000</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="2"/>
+        <v>5113500</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="7">
+        <f t="shared" si="7"/>
+        <v>455</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="5">
+        <f>D$5</f>
+        <v>35</v>
+      </c>
+      <c r="E34" s="5">
+        <f>E$5</f>
+        <v>49</v>
+      </c>
+      <c r="F34" s="6">
+        <f>1000*F$5</f>
+        <v>1000</v>
+      </c>
+      <c r="G34" s="6">
+        <f>1000*G$5</f>
+        <v>1200</v>
+      </c>
+      <c r="H34" s="6">
+        <f>1000*H$5</f>
+        <v>500</v>
+      </c>
+      <c r="I34" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="1"/>
+        <v>7085850</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="2"/>
+        <v>3068100</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="3"/>
+        <v>0.16166666666666668</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="4"/>
+        <v>1.2371134020618557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="7">
+        <f t="shared" si="7"/>
+        <v>465</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" ref="D35:E37" si="8">D$4</f>
+        <v>35</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="F35" s="6">
+        <f>2500*F$4</f>
         <v>1750</v>
       </c>
-      <c r="G25" s="6">
-        <f>2500*G$35</f>
+      <c r="G35" s="6">
+        <f>2500*G$4</f>
         <v>500</v>
       </c>
-      <c r="H25" s="6">
-        <f>2500*H$35</f>
+      <c r="H35" s="6">
+        <f>2500*H$4</f>
         <v>875</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I35" s="14">
         <v>5000</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="0"/>
+      <c r="J35" s="15">
+        <f t="shared" si="1"/>
         <v>8309437.5</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K35" s="15">
+        <f t="shared" si="2"/>
+        <v>1278375</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="3"/>
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="4"/>
+        <v>1.8461538461538463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="7">
+        <v>705</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="F36" s="6">
+        <f>F$4/2</f>
+        <v>0.35</v>
+      </c>
+      <c r="G36" s="6">
+        <f>G$4/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="6">
+        <f>H$4/2</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I36" s="14">
+        <v>6</v>
+      </c>
+      <c r="J36" s="15">
         <f t="shared" si="1"/>
-        <v>1278375</v>
-      </c>
-      <c r="L25" s="8">
+        <v>1661.8875</v>
+      </c>
+      <c r="K36" s="15">
         <f t="shared" si="2"/>
-        <v>0.18958333333333333</v>
-      </c>
-      <c r="M25" s="9">
+        <v>255.67500000000001</v>
+      </c>
+      <c r="L36" s="8">
         <f t="shared" si="3"/>
-        <v>1.8461538461538463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="7">
-        <v>700</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="5"/>
+        <v>3.1597222222222221E-2</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="4"/>
+        <v>1.8461538461538458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="7">
+        <v>720</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="E26" s="5">
-        <f t="shared" si="5"/>
+      <c r="E37" s="5">
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
-      <c r="F26" s="6">
-        <f>F$35/2</f>
+      <c r="F37" s="6">
+        <f>F$4</f>
+        <v>0.7</v>
+      </c>
+      <c r="G37" s="6">
+        <f>G$4</f>
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="6">
+        <f>H$4</f>
         <v>0.35</v>
       </c>
-      <c r="G26" s="6">
-        <f>G$35/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="6">
-        <f>H$35/2</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="I26" s="14">
-        <v>6</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" si="0"/>
-        <v>1661.8875</v>
-      </c>
-      <c r="K26" s="15">
+      <c r="I37" s="14">
+        <v>9</v>
+      </c>
+      <c r="J37" s="15">
         <f t="shared" si="1"/>
-        <v>255.67500000000001</v>
-      </c>
-      <c r="L26" s="8">
+        <v>3323.7750000000001</v>
+      </c>
+      <c r="K37" s="15">
         <f t="shared" si="2"/>
-        <v>3.1597222222222221E-2</v>
-      </c>
-      <c r="M26" s="9">
+        <v>511.35</v>
+      </c>
+      <c r="L37" s="8">
         <f t="shared" si="3"/>
+        <v>4.2129629629629628E-2</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="4"/>
         <v>1.8461538461538458</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="38" spans="1:13">
+      <c r="A38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="7">
-        <v>720</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="5"/>
+      <c r="B38" s="7">
+        <v>745</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="5">
+        <f>D$5</f>
         <v>35</v>
       </c>
-      <c r="E27" s="5">
-        <f t="shared" si="5"/>
+      <c r="E38" s="5">
+        <f>E$5</f>
         <v>49</v>
       </c>
-      <c r="F27" s="6">
-        <f>F$35</f>
-        <v>0.7</v>
-      </c>
-      <c r="G27" s="6">
-        <f>G$35</f>
-        <v>0.2</v>
-      </c>
-      <c r="H27" s="6">
-        <f>H$35</f>
-        <v>0.35</v>
-      </c>
-      <c r="I27" s="14">
-        <v>9</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="0"/>
-        <v>3323.7750000000001</v>
-      </c>
-      <c r="K27" s="15">
+      <c r="F38" s="6">
+        <f>F$5</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <f>G$5</f>
+        <v>1.2</v>
+      </c>
+      <c r="H38" s="6">
+        <f>H$5</f>
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="14">
+        <v>18</v>
+      </c>
+      <c r="J38" s="15">
         <f t="shared" si="1"/>
-        <v>511.35</v>
-      </c>
-      <c r="L27" s="8">
+        <v>7085.85</v>
+      </c>
+      <c r="K38" s="15">
         <f t="shared" si="2"/>
-        <v>4.2129629629629628E-2</v>
-      </c>
-      <c r="M27" s="9">
+        <v>3068.1</v>
+      </c>
+      <c r="L38" s="8">
         <f t="shared" si="3"/>
-        <v>1.8461538461538458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="7">
-        <v>740</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="5">
-        <f>D$36</f>
-        <v>35</v>
-      </c>
-      <c r="E28" s="5">
-        <f>E$36</f>
-        <v>49</v>
-      </c>
-      <c r="F28" s="6">
-        <f>F$36</f>
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <f>G$36</f>
-        <v>1.2</v>
-      </c>
-      <c r="H28" s="6">
-        <f>H$36</f>
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="14">
-        <v>18</v>
-      </c>
-      <c r="J28" s="15">
-        <f t="shared" si="0"/>
-        <v>7085.85</v>
-      </c>
-      <c r="K28" s="15">
-        <f t="shared" si="1"/>
-        <v>3068.1</v>
-      </c>
-      <c r="L28" s="8">
-        <f t="shared" si="2"/>
         <v>4.4907407407407417E-2</v>
       </c>
-      <c r="M28" s="9">
-        <f t="shared" si="3"/>
+      <c r="M38" s="9">
+        <f t="shared" si="4"/>
         <v>1.2371134020618557</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="7">
-        <v>815</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" ref="D29:E31" si="6">D$40</f>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="7">
+        <v>810</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15">
+        <f t="shared" ref="J39" si="9">(D39*F39+E39*G39+(168-D39-E39)*H39)*365.25/7</f>
         <v>0</v>
       </c>
-      <c r="E29" s="5">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" ref="F29:F31" si="7">F$40*$I29</f>
+      <c r="K39" s="15">
+        <f t="shared" ref="K39" si="10">E39*G39*365.25/7</f>
         <v>0</v>
       </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="14">
-        <v>0</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" ref="J29" si="8">(D29*F29+E29*G29+(168-D29-E29)*H29)*365.25/7</f>
-        <v>3104.625</v>
-      </c>
-      <c r="K29" s="15">
-        <f t="shared" ref="K29" si="9">E29*G29*365.25/7</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="8" t="e">
-        <f t="shared" ref="L29" si="10">J29/365.25/24/I29</f>
+      <c r="L39" s="8" t="e">
+        <f t="shared" ref="L39" si="11">J39/365.25/24/I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="9">
-        <f t="shared" ref="M29" si="11">MAX(F29,H29)/J29*365.25*24</f>
-        <v>1.4117647058823528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="M39" s="9" t="e">
+        <f t="shared" ref="M39" si="12">MAX(F39,H39)/J39*365.25*24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="7">
         <v>825</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I30" s="14">
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
-        <f t="shared" si="0"/>
-        <v>3104.625</v>
-      </c>
-      <c r="K30" s="15">
+      <c r="C40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="8" t="e">
+      <c r="K40" s="15">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="8" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M40" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="7">
+        <v>830</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15">
+        <f t="shared" ref="J41" si="13">(D41*F41+E41*G41+(168-D41-E41)*H41)*365.25/7</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <f t="shared" ref="K41" si="14">E41*G41*365.25/7</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>1.4117647058823528</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="7">
-        <v>835</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="14">
-        <v>0</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" ref="J31" si="12">(D31*F31+E31*G31+(168-D31-E31)*H31)*365.25/7</f>
-        <v>3104.625</v>
-      </c>
-      <c r="K31" s="15">
-        <f t="shared" ref="K31" si="13">E31*G31*365.25/7</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="8" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="9">
-        <f t="shared" si="3"/>
-        <v>1.4117647058823528</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="12">
-        <v>35</v>
-      </c>
-      <c r="E35" s="12">
-        <v>49</v>
-      </c>
-      <c r="F35" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G35" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="H35" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="12">
-        <v>35</v>
-      </c>
-      <c r="E36" s="12">
-        <v>49</v>
-      </c>
-      <c r="F36" s="13">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="H36" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="D37" s="12">
-        <v>62</v>
-      </c>
-      <c r="E37" s="12">
-        <v>49</v>
-      </c>
-      <c r="F37" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="D38" s="12">
-        <v>93.4</v>
-      </c>
-      <c r="E38" s="12">
-        <v>49</v>
-      </c>
-      <c r="F38" s="13">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="H38" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="D39" s="12">
-        <v>0</v>
-      </c>
-      <c r="E39" s="12">
-        <v>49</v>
-      </c>
-      <c r="F39" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G39" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="H39" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="D40" s="12">
-        <v>0</v>
-      </c>
-      <c r="E40" s="12">
-        <v>49</v>
-      </c>
-      <c r="F40" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G40" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="H40" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>23</v>
+      <c r="M41" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M30">
+  <autoFilter ref="A13:M40">
     <sortState ref="A4:M29">
       <sortCondition ref="B3:B29"/>
     </sortState>
@@ -3456,5 +3412,10 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>